--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzClinicalObservation</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzClinicalObservation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -683,7 +683,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient)
 </t>
   </si>
   <si>
@@ -737,7 +737,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzEncounter)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzEncounter)
 </t>
   </si>
   <si>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzClinicalObservation.xlsx
+++ b/StructureDefinition-SzClinicalObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
